--- a/src/price-files/test.xlsx
+++ b/src/price-files/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.acosta\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC80CEFC-DF33-4BBE-BA10-AC60FFFB78DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778145AF-2CC0-4750-A5C5-C234FA0F9443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{092C4E6D-1B72-424E-B0DE-EE1F9AE5C3CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Item</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Precio</t>
-  </si>
-  <si>
-    <t>10.66930.000</t>
   </si>
 </sst>
 </file>
@@ -442,8 +439,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>890108</v>
       </c>
       <c r="B2">
         <v>68</v>
